--- a/biology/Zoologie/Dendrocygne_à_dos_blanc/Dendrocygne_à_dos_blanc.xlsx
+++ b/biology/Zoologie/Dendrocygne_à_dos_blanc/Dendrocygne_à_dos_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_dos_blanc</t>
+          <t>Dendrocygne_à_dos_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassornis leuconotus
 Le Dendrocygogne à dos blanc (Thalassornis leuconotus) aussi appelé Érismature à dos blanc  ou Canard à dos blanc, est une espèce d' oiseaux de la famille des Anatidae, l'unique représentante du genre Thalassornis.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_dos_blanc</t>
+          <t>Dendrocygne_à_dos_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Thalassornis leuconotus insularis Richmond, 1897 (Madagascar) ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_dos_blanc</t>
+          <t>Dendrocygne_à_dos_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure entre 38 et 40 cm. C'est un canard qui nage très enfoncé dans l'eau, sa silhouette ressemblant à celle d'un grèbe. Le cou est court, surmonté d'une grosse tête. Le plumage est brun barré de jaunâtre, la tête est brun sombre avec une tache blanche près du bec.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_dos_blanc</t>
+          <t>Dendrocygne_à_dos_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre en Afrique subsaharienne : de l'Éthiopie et l'Angola à l'Afrique du Sud et Madagascar, ainsi qu'au Sénégal, le centre du Mali, le sud-ouest du Tchad et le nord du Nigeria.
 Il fréquente les zones humides pourvues de végétation.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_dos_blanc</t>
+          <t>Dendrocygne_à_dos_blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dendrocygognes à dos blancs  vit généralement en petits groupes, c'est une espèce aquatique qui a beaucoup de mal à se déplacer à terre. Il se nourrit en plongeant contrairement à beaucoup d'autres dendrocygnes.
 La nidification peut avoir lieu à n'importe quelle période de l'année, le nid est placé près de l'eau.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_dos_blanc</t>
+          <t>Dendrocygne_à_dos_blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La population est comprise entre 14 000 et 31 000 individus, l'espèce ne semble pas menacée.
 </t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_dos_blanc</t>
+          <t>Dendrocygne_à_dos_blanc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
